--- a/resultados_tabela_selector/tabela_final.xlsx
+++ b/resultados_tabela_selector/tabela_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED2C2E0-8217-4507-B64F-C8CA4DE1884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5ED2C2E0-8217-4507-B64F-C8CA4DE1884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95070DBC-D9B9-4DD5-80BE-17313ABF70F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo elétrico total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +933,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +979,11 @@
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -1010,8 +1029,12 @@
       <c r="O2" s="1">
         <v>0.36714359763790899</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>1.9830956510838629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1057,8 +1080,12 @@
       <c r="O3" s="1">
         <v>0.36308561082850399</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.0785256776359393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1104,8 +1131,12 @@
       <c r="O4" s="1">
         <v>0.36714359763790899</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2104546565302461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1151,8 +1182,12 @@
       <c r="O5" s="1">
         <v>0.36714359763790899</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.324134159253437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1198,8 +1233,12 @@
       <c r="O6" s="1">
         <v>0.36714359763790899</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.437813661976628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1245,8 +1284,12 @@
       <c r="O7" s="1">
         <v>0.36714359763790899</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5514931646998189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1292,8 +1335,12 @@
       <c r="O8" s="1">
         <v>0.351014585741173</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8616881754111092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1339,8 +1386,12 @@
       <c r="O9" s="1">
         <v>0.351014585741173</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9672501898498713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1386,8 +1437,12 @@
       <c r="O10" s="1">
         <v>0.34493905887871301</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0482260391283029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1433,8 +1488,12 @@
       <c r="O11" s="1">
         <v>0.34493905887871301</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.156873159950035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1480,8 +1539,12 @@
       <c r="O12" s="1">
         <v>0.35303212579422699</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2945920710915497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1527,8 +1590,12 @@
       <c r="O13" s="1">
         <v>0.34700995828317599</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3731531946150008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1574,8 +1641,12 @@
       <c r="O14" s="1">
         <v>0.33239026020215401</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7360170878943559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1621,8 +1692,12 @@
       <c r="O15" s="1">
         <v>0.33235980755404299</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8342231294033431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1668,8 +1743,12 @@
       <c r="O16" s="1">
         <v>0.33235980755404299</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.930608559730651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1715,8 +1794,12 @@
       <c r="O17" s="1">
         <v>0.33235980755404299</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0269939900579592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1762,8 +1845,12 @@
       <c r="O18" s="1">
         <v>0.33235980755404299</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1233794203852669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1809,8 +1896,12 @@
       <c r="O19" s="1">
         <v>0.33235980755404299</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2197648507125751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1856,8 +1947,12 @@
       <c r="O20" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.656809497387375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1903,8 +1998,12 @@
       <c r="O21" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.745514691533286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1950,8 +2049,12 @@
       <c r="O22" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.834219885679198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1997,8 +2100,12 @@
       <c r="O23" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9229250798251101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2044,8 +2151,12 @@
       <c r="O24" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0103962314178307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -2091,8 +2202,12 @@
       <c r="O25" s="1">
         <v>0.32524403995266499</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1003354681169331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -2138,8 +2253,12 @@
       <c r="O26" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5622466860448609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -2185,8 +2304,12 @@
       <c r="O27" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.644739645461847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -2232,8 +2355,12 @@
       <c r="O28" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7278278594218142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -2279,8 +2406,12 @@
       <c r="O29" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8115766281256072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -2326,8 +2457,12 @@
       <c r="O30" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.894069587542593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -2373,8 +2508,12 @@
       <c r="O31" s="1">
         <v>0.31414718880244802</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.977796589512772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2420,8 +2559,12 @@
       <c r="O32" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4756282061927599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -2467,8 +2610,12 @@
       <c r="O33" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.553228964764628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -2514,8 +2661,12 @@
       <c r="O34" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.630835535422777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2561,8 +2712,12 @@
       <c r="O35" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.708430481908362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -2608,8 +2763,12 @@
       <c r="O36" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7860389899286051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -2655,8 +2814,12 @@
       <c r="O37" s="1">
         <v>0.30448049105422897</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8636407171815199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -2702,8 +2865,12 @@
       <c r="O38" s="1">
         <v>0.30058238309208901</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4115892278954032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -2749,8 +2916,12 @@
       <c r="O39" s="1">
         <v>0.29857789865975598</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.477210228783187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>21</v>
       </c>
@@ -2796,8 +2967,12 @@
       <c r="O40" s="1">
         <v>0.30058238309208901</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5561564800842951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21</v>
       </c>
@@ -2843,8 +3018,12 @@
       <c r="O41" s="1">
         <v>0.29857789865975598</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6218886927474541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21</v>
       </c>
@@ -2890,8 +3069,12 @@
       <c r="O42" s="1">
         <v>0.29857789865975598</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6942279247295871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>21</v>
       </c>
@@ -2937,8 +3120,12 @@
       <c r="O43" s="1">
         <v>0.29857789865975598</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.76656715671172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2984,8 +3171,12 @@
       <c r="O44" s="1">
         <v>0.28474860380199801</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.307443283981816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -3031,8 +3222,12 @@
       <c r="O45" s="1">
         <v>0.28268835016960198</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3660888729200331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -3078,8 +3273,12 @@
       <c r="O46" s="1">
         <v>0.28268835016960198</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4333264242786301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -3125,8 +3324,12 @@
       <c r="O47" s="1">
         <v>0.28474860380199801</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.508964294116679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -3172,8 +3375,12 @@
       <c r="O48" s="1">
         <v>0.28268835016960198</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.567801526995825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22</v>
       </c>
@@ -3219,8 +3426,12 @@
       <c r="O49" s="1">
         <v>0.28268835016960198</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.635039078354422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>23</v>
       </c>
@@ -3266,8 +3477,12 @@
       <c r="O50" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2004780827475381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -3313,8 +3528,12 @@
       <c r="O51" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.262777954709611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23</v>
       </c>
@@ -3360,8 +3579,12 @@
       <c r="O52" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3250778266716841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -3407,8 +3630,12 @@
       <c r="O53" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.387377698633756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23</v>
       </c>
@@ -3454,8 +3681,12 @@
       <c r="O54" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4496775705958291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23</v>
       </c>
@@ -3501,8 +3732,12 @@
       <c r="O55" s="1">
         <v>0.26700199915456801</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.511977442557902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>24</v>
       </c>
@@ -3548,8 +3783,12 @@
       <c r="O56" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1384995943962941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>24</v>
       </c>
@@ -3595,8 +3834,12 @@
       <c r="O57" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.195991314093876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3642,8 +3885,12 @@
       <c r="O58" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2534830337914591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3689,8 +3936,12 @@
       <c r="O59" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.310974753489041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -3736,8 +3987,12 @@
       <c r="O60" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3684664731866241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24</v>
       </c>
@@ -3783,8 +4038,12 @@
       <c r="O61" s="1">
         <v>0.26312846028681602</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4259581928842071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>25</v>
       </c>
@@ -3830,8 +4089,12 @@
       <c r="O62" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.059182881780752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>25</v>
       </c>
@@ -3877,8 +4140,12 @@
       <c r="O63" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1121556407988922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>25</v>
       </c>
@@ -3924,8 +4191,12 @@
       <c r="O64" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.165128399817033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25</v>
       </c>
@@ -3971,8 +4242,12 @@
       <c r="O65" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2181011588351731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>25</v>
       </c>
@@ -4018,8 +4293,12 @@
       <c r="O66" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.271073917853313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>25</v>
       </c>
@@ -4065,8 +4344,12 @@
       <c r="O67" s="1">
         <v>0.25371737762308499</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.3240466768714541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>26</v>
       </c>
@@ -4112,8 +4395,12 @@
       <c r="O68" s="1">
         <v>0.239200265801745</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98080365012166204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>26</v>
       </c>
@@ -4159,8 +4446,12 @@
       <c r="O69" s="1">
         <v>0.239200265801745</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0272204536484508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>26</v>
       </c>
@@ -4206,8 +4497,12 @@
       <c r="O70" s="1">
         <v>0.25176777030888903</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1021346494859661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>26</v>
       </c>
@@ -4253,8 +4548,12 @@
       <c r="O71" s="1">
         <v>0.25176777030888903</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1508979236750541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>26</v>
       </c>
@@ -4300,8 +4599,12 @@
       <c r="O72" s="1">
         <v>0.25547976793828298</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2083093657063009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>26</v>
       </c>
@@ -4347,8 +4650,12 @@
       <c r="O73" s="1">
         <v>0.25176777030888903</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2484244720532289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>27</v>
       </c>
@@ -4394,8 +4701,12 @@
       <c r="O74" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90837774273096894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>27</v>
       </c>
@@ -4441,8 +4752,12 @@
       <c r="O75" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94601604690445296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>27</v>
       </c>
@@ -4488,8 +4803,12 @@
       <c r="O76" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99105860639708598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>27</v>
       </c>
@@ -4535,8 +4854,12 @@
       <c r="O77" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.028696910570569</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>27</v>
       </c>
@@ -4582,8 +4905,12 @@
       <c r="O78" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0737394700632021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27</v>
       </c>
@@ -4629,8 +4956,12 @@
       <c r="O79" s="1">
         <v>0.229037291994482</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1150799018962609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>28</v>
       </c>
@@ -4676,8 +5007,12 @@
       <c r="O80" s="1">
         <v>0.21893573042733999</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82872126515054512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>28</v>
       </c>
@@ -4723,8 +5058,12 @@
       <c r="O81" s="1">
         <v>0.21893573042733999</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86655594670368608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>28</v>
       </c>
@@ -4770,8 +5109,12 @@
       <c r="O82" s="1">
         <v>0.22073693622079299</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91359608936942993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>28</v>
       </c>
@@ -4817,8 +5160,12 @@
       <c r="O83" s="1">
         <v>0.22073693622079299</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.951430770922572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>28</v>
       </c>
@@ -4864,8 +5211,12 @@
       <c r="O84" s="1">
         <v>0.22073693622079299</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98926545247571407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>28</v>
       </c>
@@ -4911,8 +5262,12 @@
       <c r="O85" s="1">
         <v>0.22073693622079299</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>1.027100134028855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>29</v>
       </c>
@@ -4958,8 +5313,12 @@
       <c r="O86" s="1">
         <v>0.21734687495782601</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77901941677265096</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>29</v>
       </c>
@@ -5005,8 +5364,12 @@
       <c r="O87" s="1">
         <v>0.21920287377252301</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81933078508360702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>29</v>
       </c>
@@ -5052,8 +5415,12 @@
       <c r="O88" s="1">
         <v>0.20823125994807401</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82830390245754493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>29</v>
       </c>
@@ -5099,8 +5466,12 @@
       <c r="O89" s="1">
         <v>0.20823125994807401</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86244012301763506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -5146,8 +5517,12 @@
       <c r="O90" s="1">
         <v>0.21188846455622301</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90578673967523404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>29</v>
       </c>
@@ -5193,8 +5568,12 @@
       <c r="O91" s="1">
         <v>0.20823125994807401</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.930712564137813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>30</v>
       </c>
@@ -5240,8 +5619,12 @@
       <c r="O92" s="1">
         <v>0.21014644772920299</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.713164584729019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>30</v>
       </c>
@@ -5287,8 +5670,12 @@
       <c r="O93" s="1">
         <v>0.20126319263999201</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72545075750678312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>30</v>
       </c>
@@ -5334,8 +5721,12 @@
       <c r="O94" s="1">
         <v>0.20126319263999201</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75587550452269503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>30</v>
       </c>
@@ -5381,8 +5772,12 @@
       <c r="O95" s="1">
         <v>0.20126319263999201</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78630025153860605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>30</v>
       </c>
@@ -5428,8 +5823,12 @@
       <c r="O96" s="1">
         <v>0.20126319263999201</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81672499855451808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>30</v>
       </c>
@@ -5474,6 +5873,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.20126319263999201</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84714974557042899</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_selector/tabela_final.xlsx
+++ b/resultados_tabela_selector/tabela_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF889B7-1B37-4006-9813-0FEFB64B1FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1BF889B7-1B37-4006-9813-0FEFB64B1FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0C8F60-2FBE-4EB9-BE3B-32B398667CEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +935,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1031,12 @@
       <c r="O2" s="1">
         <v>0.38769568755804001</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>2.0680390930994661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1059,8 +1082,12 @@
       <c r="O3" s="1">
         <v>0.37126392615885101</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.1178508037151618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1106,8 +1133,12 @@
       <c r="O4" s="1">
         <v>0.38152287025165499</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2730820646541678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1153,8 +1184,12 @@
       <c r="O5" s="1">
         <v>0.37493793632149103</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3628851059928522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1200,8 +1235,12 @@
       <c r="O6" s="1">
         <v>0.37906023699476499</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4993667289723112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1247,8 +1286,12 @@
       <c r="O7" s="1">
         <v>0.37904870658700002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6175686957350002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1294,8 +1337,12 @@
       <c r="O8" s="1">
         <v>0.363702142351708</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9067343800274787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1341,8 +1388,12 @@
       <c r="O9" s="1">
         <v>0.36369548044358502</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0222437852395201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1388,8 +1439,12 @@
       <c r="O10" s="1">
         <v>0.35959964855448001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1082388227921212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1435,8 +1490,12 @@
       <c r="O11" s="1">
         <v>0.36725551259615802</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2445829289488062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1482,8 +1541,12 @@
       <c r="O12" s="1">
         <v>0.36109763366617598</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3386617719470877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1529,8 +1592,12 @@
       <c r="O13" s="1">
         <v>0.36109763366617598</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.443269347223056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1576,8 +1643,12 @@
       <c r="O14" s="1">
         <v>0.34902334269803098</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.799261734654376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1623,8 +1694,12 @@
       <c r="O15" s="1">
         <v>0.34698289594168003</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.894001293686248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1670,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.35308132950743598</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.015384497392728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1717,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.35308132950743598</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1127826142663819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1764,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.35308132950743598</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2163432917958739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1811,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.355158314924716</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3275413081854919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1858,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.34490121379901301</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.721432992871093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1905,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.342860767042662</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.810855587432781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1952,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.34084322698960801</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.894127972387627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.34084322698960801</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9837390183140409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2046,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.34490121379901301</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.094683596324145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2093,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.34595025873570301</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1903305166071769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2140,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.339226956216516</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6472088594348069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2187,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.33516896940711099</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7167172113452138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2234,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.34325449037780997</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8235912330394051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2281,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.34803168229716203</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9277995893459881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2328,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.34393585040805702</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9916463390546628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2375,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.33791368289700602</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0548416102715539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2422,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.31897840933838401</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5242412249167452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2469,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.33730863796556698</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.663733933661601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2516,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.32931739132217103</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.711431509527287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2563,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.32374036070541101</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7739007097488482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2610,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.32386222833009398</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8514659778385152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2657,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.32800367766598199</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9405337976167201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2704,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.31708104094634698</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.461112653860104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2751,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.31526133840119502</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5313988278835011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2798,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.31544572096427798</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.601783732757857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.31150902624513899</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6586710593951222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2892,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.31763516920150298</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7543531920583659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2939,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.31193064487222</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8078735133407569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2986,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.30447103008658599</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3715975838381891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3033,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.30252142277238903</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4258914538076231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3080,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.30077922863098999</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4893697873537479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.30493017797810001</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5721048052499098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3174,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.30693101739461098</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4985905918626961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3221,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.30712961643419701</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.709406075827087</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3268,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.29755292216477702</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2552656881222231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3315,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.295603314850581</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.294371931871857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3362,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.29785683527957002</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.342000452300846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3409,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.29984392268451299</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3980008375781301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3456,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.29984392268451299</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4384396673653641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3503,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.29618997155961202</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4764585885808881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3550,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.28608237037629902</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1802419448443842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3597,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.28806945778124099</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2325402024620919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3644,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.28405780288061</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.261563122029546</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3691,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.29001906509543801</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3289419374358629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3738,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.28604489028555202</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3592363796472537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3785,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.29237486079098302</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.420196669301621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3832,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.27104592709935699</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.096716139865314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3879,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.26904537944534002</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1370054858283181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3926,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.26713968502832902</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1743045786453501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3973,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.27698670162247602</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2523563824735391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4020,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.26713968502832902</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.26937372758152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4067,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.27356390641304501</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.3285772042853849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4114,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.25550036367228401</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.021311932267349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4161,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.26521629167618499</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0884328800795919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4208,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.257618539667473</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.119729509581348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4255,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.24412745818279</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1284732351390498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4302,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.25364436485758701</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.203416438217932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4349,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.25748745107722698</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2554260384302689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4396,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.230899449556456</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90458034586591007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4443,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.24532597332018299</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98414974622517903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4490,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.22651266744307499</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97858759533684492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4537,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.23225056795566601</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0336330741808268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4584,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.24376770175302001</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.10547719093258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4631,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.220949768417914</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.087452786536244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4678,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.23102486967536201</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.861712366548121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4725,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.23453274855672099</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91445884948093303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4772,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.23288086849005901</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94297551513370403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4819,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.217879701038664</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9449727967201671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4866,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.22142292365913699</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99181557477683802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4913,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.20838010729436501</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99702592339349905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4960,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.195664451280671</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73119913040036699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5007,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.21624928810888899</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81856657317872206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5054,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.195664451280671</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80059412953468301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5101,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.208648078679011</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86678589479805501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5148,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.19914848493471199</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87902635381240302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5195,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.195664451280671</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.907472853976383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5242,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.201392902453923</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69742716504050994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5289,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.19015129188260299</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70236965203073187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5336,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.19015129188260299</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73459630278376187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5383,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.19940581504898</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78594981712870104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5430,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.19015129188260299</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79904960428982208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5476,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.19965666703514601</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84818588551454499</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_selector/tabela_final.xlsx
+++ b/resultados_tabela_selector/tabela_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2C07E2D-3E31-48F9-9CD1-FDBCCA482B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{C2C07E2D-3E31-48F9-9CD1-FDBCCA482B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A783712-CA91-42C7-83BB-51C97F490483}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,12 +79,15 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +218,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,11 +564,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -915,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="V65" sqref="V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +981,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1021,6 +1031,10 @@
       <c r="O2" s="1">
         <v>0.36822778704610998</v>
       </c>
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>2.2870043827907902</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1068,6 +1082,10 @@
       <c r="O3" s="1">
         <v>0.36822778704610998</v>
       </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.5303793827907901</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1115,6 +1133,10 @@
       <c r="O4" s="1">
         <v>0.36619649498148799</v>
       </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.713515643917658</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1162,6 +1184,10 @@
       <c r="O5" s="1">
         <v>0.36822778704610998</v>
       </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0171293827907801</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1209,6 +1235,10 @@
       <c r="O6" s="1">
         <v>0.36822778704610998</v>
       </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2605043827907902</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1256,6 +1286,10 @@
       <c r="O7" s="1">
         <v>0.36822778704610998</v>
       </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5038793827907901</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1303,6 +1337,10 @@
       <c r="O8" s="1">
         <v>0.35453669816018701</v>
       </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.199816840004158</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1350,6 +1388,10 @@
       <c r="O9" s="1">
         <v>0.35453669816018701</v>
       </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.445025173337485</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1397,6 +1439,10 @@
       <c r="O10" s="1">
         <v>0.35453669816018701</v>
       </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6902335066708249</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1444,6 +1490,10 @@
       <c r="O11" s="1">
         <v>0.35453669816018701</v>
       </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9354418400041551</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1491,7 +1541,10 @@
       <c r="O12" s="1">
         <v>0.35453669816018701</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1806501733374848</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1539,6 +1592,10 @@
       <c r="O13" s="1">
         <v>0.35453669816018701</v>
       </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4258585066708251</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1586,6 +1643,10 @@
       <c r="O14" s="1">
         <v>0.348843018908852</v>
       </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.19676145862516</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1633,6 +1694,10 @@
       <c r="O15" s="1">
         <v>0.348843018908852</v>
       </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.46946979195849</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1680,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.348843018908852</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7421781252918196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1727,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.348843018908852</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0148864586251598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1774,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.348843018908852</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2875947919584898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1821,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.352938850797957</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5348377869681689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1868,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1297923228001929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1915,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3359208688994899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1962,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6733756561335329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2009,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9451673228001929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2056,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2169589894668631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2103,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.342306507197363</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4887506561335329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2150,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.33390144479733702</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0481922249391769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2197,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.33390144479733702</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3140255582725069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2244,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.33390144479733702</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5798588916058374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2291,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.33314448064499802</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.774969835254923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2338,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.33314448064499802</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.028428168588253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2385,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.33314448064499802</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2818865019215928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2432,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.33286321092176202</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9874270407089951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2479,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.32642899640515999</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1955814786746601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2526,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.32642899640515999</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.44674814534133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2573,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.32642899640515999</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6979148120079901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2620,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.32642899640515999</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9490814786746604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2667,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.32370646694438698</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1356506158805564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2714,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.30890475713905402</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8017274521745141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2761,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.31248775689439801</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0473104519298548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2808,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.31248775689439801</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2819771185965152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2855,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.31248775689439801</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5166437852631853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2902,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.31248775689439801</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7513104519298546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2949,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.30496806241991498</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9394813602922554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2996,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.28861856510012301</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.617320692759697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3043,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.294460954236272</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8450673372149951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3090,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.27701517981575702</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9249992223689478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3137,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.28277617596397397</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1844827362476549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3184,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.28663147769517999</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3999648110285099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3231,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.28671287068311302</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6565532962150273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3278,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.27852399145100198</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.504821863791427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3325,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.27657438413680502</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.689413923143896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3372,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.27657438413680502</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.87412225647723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3419,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.272719082405599</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>2.114574578859493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3466,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.26890769357157801</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>2.242957338961642</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3513,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.26890769357157801</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4317906722949818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3560,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.27070154235254401</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.443900123912826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3607,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.27646253850076102</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.63923558814615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3654,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.27070154235254401</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.81423345724616</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3701,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.27070154235254401</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9994001239128201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3748,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.27070154235254401</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1845667905794901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3795,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.27646253850076102</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3725689214794836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3842,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.27252584378162198</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3868449927177919</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3889,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.27201996133209799</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5585492166512449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3936,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.27252584378162198</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.738844992717782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3983,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.27252584378162198</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.914844992717782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4030,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.27252584378162198</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0908449927177917</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4077,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.27252584378162198</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>2.2668449927177918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4124,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.27135371405081998</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3291374019940811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4171,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.27631114323542</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.590512384370171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4218,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.27135371405081998</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6692207353274151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4265,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.27631114323542</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.981929051036835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4312,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.27631114323542</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1776373843701653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4359,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.27631114323542</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3733457177035051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4406,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.29162579012213402</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>1.423987492249793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4453,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.29372097498084798</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>1.648374343775167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4500,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.29162579012213402</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.863987492249793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4547,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.29372097498084798</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>2.089291010441837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4594,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.29162579012213402</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3039874922497932</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4641,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.29372097498084798</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5302076771085069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4688,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.29122157020959699</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3402889460961209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4735,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.28588880903152097</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5245474969747761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4782,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.28588880903152097</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>1.725755830308116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4829,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.28588880903152097</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9269641636414461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4876,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.29122157020959699</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1561222794294479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4923,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.28588880903152097</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>2.329380830308116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4970,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>1.21765912314503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5017,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4009924564783631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5064,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5843257898116971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5111,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7676591231450272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5158,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9509924564783567</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5205,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.27885770470531501</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>2.134325789811697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5252,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.27348870797556701</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>1.098481615776985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5299,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.27348870797556701</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2570649491103181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5346,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.27348870797556701</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.415648282443652</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5393,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.27348870797556701</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>1.574231615776982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5440,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.27348870797556701</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>1.732814949110312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5486,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.27348870797556701</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8913982824436519</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela_selector/tabela_final.xlsx
+++ b/resultados_tabela_selector/tabela_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/resultados_tabela_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{793B8617-5E19-4E98-B7CD-EB75DFF9BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{793B8617-5E19-4E98-B7CD-EB75DFF9BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0074150-BD7E-4E51-B883-EEE35FAF4C3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela_final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +933,7 @@
     <col min="1" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +979,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -1010,8 +1029,12 @@
       <c r="O2" s="1">
         <v>0.37799935572507398</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>1.6833043202640801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1057,8 +1080,12 @@
       <c r="O3" s="1">
         <v>0.38314627189557199</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q66" si="0">SUM(M3,N3,O3)</f>
+        <v>1.8440966265055001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1104,8 +1131,12 @@
       <c r="O4" s="1">
         <v>0.37799935572507398</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9546376535974141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1151,8 +1182,12 @@
       <c r="O5" s="1">
         <v>0.38005474085782798</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1020671522053447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -1198,8 +1233,12 @@
       <c r="O6" s="1">
         <v>0.38767567732816899</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2683423439948318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -1245,8 +1284,12 @@
       <c r="O7" s="1">
         <v>0.37951227921317299</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3660300097096263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -1292,8 +1335,12 @@
       <c r="O8" s="1">
         <v>0.37167011454019899</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.611478625178496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1339,8 +1386,12 @@
       <c r="O9" s="1">
         <v>0.3672603810958</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.71785612577665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -1386,8 +1437,12 @@
       <c r="O10" s="1">
         <v>0.372047855908407</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8671010473977681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -1433,8 +1488,12 @@
       <c r="O11" s="1">
         <v>0.3672603810958</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9648038208121108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -1480,8 +1539,12 @@
       <c r="O12" s="1">
         <v>0.36667762989588398</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0810960696121947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -1527,8 +1590,12 @@
       <c r="O13" s="1">
         <v>0.36667762989588398</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2047990837965932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1574,8 +1641,12 @@
       <c r="O14" s="1">
         <v>0.35845949733350502</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5071048874044259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -1621,8 +1692,12 @@
       <c r="O15" s="1">
         <v>0.36418531770641299</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.636334253876625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1668,8 +1743,12 @@
       <c r="O16" s="1">
         <v>0.362129932573658</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7414934077509621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1715,8 +1794,12 @@
       <c r="O17" s="1">
         <v>0.36313808042252699</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.813343754181391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1762,8 +1845,12 @@
       <c r="O18" s="1">
         <v>0.362599514027801</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9696136984249639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1809,8 +1896,12 @@
       <c r="O19" s="1">
         <v>0.359874198944104</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.052455759227791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1856,8 +1947,12 @@
       <c r="O20" s="1">
         <v>0.34828017025504698</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4199822979146202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1903,8 +1998,12 @@
       <c r="O21" s="1">
         <v>0.34828017025504698</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5192996738011462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1950,8 +2049,12 @@
       <c r="O22" s="1">
         <v>0.34828017025504698</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6178883262834147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1997,8 +2100,12 @@
       <c r="O23" s="1">
         <v>0.342227646966418</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.698895200157907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -2044,8 +2151,12 @@
       <c r="O24" s="1">
         <v>0.34626272707252698</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8115322306186261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -2091,8 +2202,12 @@
       <c r="O25" s="1">
         <v>0.34828026712558102</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8602651962035952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -2138,8 +2253,12 @@
       <c r="O26" s="1">
         <v>0.33742086267423199</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.334424408773522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -2185,8 +2304,12 @@
       <c r="O27" s="1">
         <v>0.33659471949807801</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4358065989307021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>19</v>
       </c>
@@ -2232,8 +2355,12 @@
       <c r="O28" s="1">
         <v>0.33819256686030902</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5077883115411599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -2279,8 +2406,12 @@
       <c r="O29" s="1">
         <v>0.33659471949807801</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6191399322640352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>19</v>
       </c>
@@ -2326,8 +2457,12 @@
       <c r="O30" s="1">
         <v>0.33772880428379098</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.712246534780244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>19</v>
       </c>
@@ -2373,8 +2508,12 @@
       <c r="O31" s="1">
         <v>0.34021010691336301</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.789612589182866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20</v>
       </c>
@@ -2420,8 +2559,12 @@
       <c r="O32" s="1">
         <v>0.331774272526141</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2469232086963531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -2467,8 +2610,12 @@
       <c r="O33" s="1">
         <v>0.33376135993108302</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3381913244700891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>20</v>
       </c>
@@ -2514,8 +2661,12 @@
       <c r="O34" s="1">
         <v>0.33376135993108302</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.417482991136755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>20</v>
       </c>
@@ -2561,8 +2712,12 @@
       <c r="O35" s="1">
         <v>0.33577889998413801</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.556377304239456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20</v>
       </c>
@@ -2608,8 +2763,12 @@
       <c r="O36" s="1">
         <v>0.33268976626670099</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6986613974723741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>20</v>
       </c>
@@ -2655,8 +2814,12 @@
       <c r="O37" s="1">
         <v>0.337796440037192</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6531767591861279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>21</v>
       </c>
@@ -2702,8 +2865,12 @@
       <c r="O38" s="1">
         <v>0.31158551809040502</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2720571492960779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>21</v>
       </c>
@@ -2749,8 +2916,12 @@
       <c r="O39" s="1">
         <v>0.31461592293041402</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.239481171157363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>21</v>
       </c>
@@ -2796,8 +2967,12 @@
       <c r="O40" s="1">
         <v>0.31660301033535698</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3113583294842921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>21</v>
       </c>
@@ -2843,8 +3018,12 @@
       <c r="O41" s="1">
         <v>0.32628848569114599</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4646200459748329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>21</v>
       </c>
@@ -2890,8 +3069,12 @@
       <c r="O42" s="1">
         <v>0.31650940183585702</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4312895436798279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>21</v>
       </c>
@@ -2937,8 +3120,12 @@
       <c r="O43" s="1">
         <v>0.32436933102506099</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.529312593436408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>22</v>
       </c>
@@ -2984,8 +3171,12 @@
       <c r="O44" s="1">
         <v>0.31232157500656499</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1021300856448621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>22</v>
       </c>
@@ -3031,8 +3222,12 @@
       <c r="O45" s="1">
         <v>0.29878079791957002</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.139615904302548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>22</v>
       </c>
@@ -3078,8 +3273,12 @@
       <c r="O46" s="1">
         <v>0.31925232508972501</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4010413321819231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>22</v>
       </c>
@@ -3125,8 +3324,12 @@
       <c r="O47" s="1">
         <v>0.308384880287426</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3073573980179212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>22</v>
       </c>
@@ -3172,8 +3375,12 @@
       <c r="O48" s="1">
         <v>0.30261227672796498</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.349768305096759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>22</v>
       </c>
@@ -3219,8 +3426,12 @@
       <c r="O49" s="1">
         <v>0.29291458586060998</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3404580255769218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>23</v>
       </c>
@@ -3266,8 +3477,12 @@
       <c r="O50" s="1">
         <v>0.29654660659513299</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0217983796447769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>23</v>
       </c>
@@ -3313,8 +3528,12 @@
       <c r="O51" s="1">
         <v>0.28483642959637001</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0170217132843131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -3360,8 +3579,12 @@
       <c r="O52" s="1">
         <v>0.27912512905046599</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0795542070646489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>23</v>
       </c>
@@ -3407,8 +3630,12 @@
       <c r="O53" s="1">
         <v>0.29064133864177299</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.198708714528296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -3454,8 +3681,12 @@
       <c r="O54" s="1">
         <v>0.28897580939370798</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.170060915776685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>23</v>
       </c>
@@ -3501,8 +3732,12 @@
       <c r="O55" s="1">
         <v>0.28288682228217399</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2290428506509672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -3548,8 +3783,12 @@
       <c r="O56" s="1">
         <v>0.27475952916195001</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96716023838180698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -3595,8 +3834,12 @@
       <c r="O57" s="1">
         <v>0.255573376437782</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98740139062217802</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -3642,8 +3885,12 @@
       <c r="O58" s="1">
         <v>0.27666522357896001</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.017074798047044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -3689,8 +3936,12 @@
       <c r="O59" s="1">
         <v>0.27485313766144898</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1307618256047101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -3736,8 +3987,12 @@
       <c r="O60" s="1">
         <v>0.26902792194095099</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.066517283643077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>24</v>
       </c>
@@ -3783,8 +4038,12 @@
       <c r="O61" s="1">
         <v>0.27641428816003999</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1710942526990471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>25</v>
       </c>
@@ -3830,8 +4089,12 @@
       <c r="O62" s="1">
         <v>0.25635203784237798</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84033785344521394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -3877,8 +4140,12 @@
       <c r="O63" s="1">
         <v>0.262859135091639</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96524743296397886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>25</v>
       </c>
@@ -3924,8 +4191,12 @@
       <c r="O64" s="1">
         <v>0.25570446502802802</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94662290474433908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>25</v>
       </c>
@@ -3971,8 +4242,12 @@
       <c r="O65" s="1">
         <v>0.26611370857004502</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95527062346366098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>25</v>
       </c>
@@ -4018,8 +4293,12 @@
       <c r="O66" s="1">
         <v>0.25570446502802802</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0409455997798001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>25</v>
       </c>
@@ -4065,8 +4344,12 @@
       <c r="O67" s="1">
         <v>0.25630694112399</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:Q97" si="1">SUM(M67,N67,O67)</f>
+        <v>1.0265409836771799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>26</v>
       </c>
@@ -4112,8 +4395,12 @@
       <c r="O68" s="1">
         <v>0.245857057040127</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80157691519615404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>26</v>
       </c>
@@ -4159,8 +4446,12 @@
       <c r="O69" s="1">
         <v>0.25524398513900498</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86854983620283388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>26</v>
       </c>
@@ -4206,8 +4497,12 @@
       <c r="O70" s="1">
         <v>0.24769978033943199</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82344623424014096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>26</v>
       </c>
@@ -4253,8 +4548,12 @@
       <c r="O71" s="1">
         <v>0.24600667199974999</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94856961526215999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>26</v>
       </c>
@@ -4300,8 +4599,12 @@
       <c r="O72" s="1">
         <v>0.244007369083241</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99140453220380698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>26</v>
       </c>
@@ -4347,8 +4650,12 @@
       <c r="O73" s="1">
         <v>0.25317267969530599</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1163402328867948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>27</v>
       </c>
@@ -4394,8 +4701,12 @@
       <c r="O74" s="1">
         <v>0.23741772982005899</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75858439648672404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -4441,8 +4752,12 @@
       <c r="O75" s="1">
         <v>0.246731441952868</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86961264762662605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>27</v>
       </c>
@@ -4488,8 +4803,12 @@
       <c r="O76" s="1">
         <v>0.24663783345336901</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90805450012003397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>27</v>
       </c>
@@ -4535,8 +4854,12 @@
       <c r="O77" s="1">
         <v>0.23741772982005899</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90295939648672396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>27</v>
       </c>
@@ -4582,8 +4905,12 @@
       <c r="O78" s="1">
         <v>0.25737241173226499</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.029024894001767</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>27</v>
       </c>
@@ -4629,8 +4956,12 @@
       <c r="O79" s="1">
         <v>0.24245820482622299</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88375607716664706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>28</v>
       </c>
@@ -4676,8 +5007,12 @@
       <c r="O80" s="1">
         <v>0.224022401748113</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70981318188995601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>28</v>
       </c>
@@ -4723,8 +5058,12 @@
       <c r="O81" s="1">
         <v>0.22610126711923301</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76413052243838098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>28</v>
       </c>
@@ -4770,8 +5109,12 @@
       <c r="O82" s="1">
         <v>0.22942162318328399</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65351559481448895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>28</v>
       </c>
@@ -4817,8 +5160,12 @@
       <c r="O83" s="1">
         <v>0.23255184506641399</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85210592308059707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>28</v>
       </c>
@@ -4864,8 +5211,12 @@
       <c r="O84" s="1">
         <v>0.237436724759261</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86251473894365704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>28</v>
       </c>
@@ -4911,8 +5262,12 @@
       <c r="O85" s="1">
         <v>0.22874108652398301</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95556821418355686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>29</v>
       </c>
@@ -4958,8 +5313,12 @@
       <c r="O86" s="1">
         <v>0.23817153762089499</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70092685676983002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>29</v>
       </c>
@@ -5005,8 +5364,12 @@
       <c r="O87" s="1">
         <v>0.227394300316627</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69232426485563303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29</v>
       </c>
@@ -5052,8 +5415,12 @@
       <c r="O88" s="1">
         <v>0.21995344370044401</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57454386923235801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>29</v>
       </c>
@@ -5099,8 +5466,12 @@
       <c r="O89" s="1">
         <v>0.23515187723390599</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85034425312042994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>29</v>
       </c>
@@ -5146,8 +5517,12 @@
       <c r="O90" s="1">
         <v>0.25379843810642999</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94003248065962097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>29</v>
       </c>
@@ -5193,8 +5568,12 @@
       <c r="O91" s="1">
         <v>0.224452728307241</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89359900490298494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>30</v>
       </c>
@@ -5240,8 +5619,12 @@
       <c r="O92" s="1">
         <v>0.21440117189294799</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55586216480074868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>30</v>
       </c>
@@ -5287,8 +5670,12 @@
       <c r="O93" s="1">
         <v>0.213394831696883</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61515546999475501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>30</v>
       </c>
@@ -5334,8 +5721,12 @@
       <c r="O94" s="1">
         <v>0.21171569915562599</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57040541546768198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>30</v>
       </c>
@@ -5381,8 +5772,12 @@
       <c r="O95" s="1">
         <v>0.213394831696883</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67244713666142097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>30</v>
       </c>
@@ -5428,8 +5823,12 @@
       <c r="O96" s="1">
         <v>0.21064410549124399</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59408382180329899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>30</v>
       </c>
@@ -5474,6 +5873,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.209505038057652</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60476744940516802</v>
       </c>
     </row>
   </sheetData>
